--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -174,7 +174,10 @@
     <t>clickPos</t>
   </si>
   <si>
-    <t>extra</t>
+    <t>extraStart</t>
+  </si>
+  <si>
+    <t>extraEnd</t>
   </si>
   <si>
     <t>##type</t>
@@ -192,6 +195,12 @@
     <t>float</t>
   </si>
   <si>
+    <t>(list#sep=;),int</t>
+  </si>
+  <si>
+    <t>(list#sep=;),string</t>
+  </si>
+  <si>
     <t>(map#sep=:;),string,string</t>
   </si>
   <si>
@@ -240,7 +249,10 @@
     <t>教程可点击部分</t>
   </si>
   <si>
-    <t>额外字段</t>
+    <t>开始引导时的额外字段</t>
+  </si>
+  <si>
+    <t>结束引导时的额外字段</t>
   </si>
   <si>
     <t>游玩引导1</t>
@@ -277,18 +289,6 @@
   </si>
   <si>
     <t>falseT:0</t>
-  </si>
-  <si>
-    <t>引导点击兑现按钮</t>
-  </si>
-  <si>
-    <t>4,Top/CurMoney/GuidePos4</t>
-  </si>
-  <si>
-    <t>4,Top/CurMoney/CMBtn</t>
-  </si>
-  <si>
-    <t>falseT:0;OnceW:0</t>
   </si>
 </sst>
 </file>
@@ -983,27 +983,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1317,12 +1317,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L17" sqref="L17"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1339,12 +1339,13 @@
     <col min="14" max="14" width="22.375" customWidth="1"/>
     <col min="15" max="15" width="29.5" customWidth="1"/>
     <col min="16" max="16" width="35.875" customWidth="1"/>
+    <col min="17" max="17" width="28.5" customWidth="1"/>
     <col min="19" max="19" width="17.625" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
     <col min="21" max="21" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1393,8 +1394,11 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1413,60 +1417,64 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1483,58 +1491,62 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-    </row>
-    <row r="5" ht="40.5" spans="1:16">
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" ht="40.5" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="2:16">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:17">
       <c r="B6">
         <v>10001</v>
       </c>
@@ -1542,7 +1554,7 @@
         <v>10002</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>10001</v>
@@ -1559,22 +1571,22 @@
       <c r="J6">
         <v>10089</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="9"/>
+      <c r="K6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="6"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="N6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="B7">
         <v>10002</v>
       </c>
@@ -1582,7 +1594,7 @@
         <v>10003</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>10001</v>
@@ -1599,22 +1611,22 @@
       <c r="J7">
         <v>10090</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="9"/>
+      <c r="K7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="6"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" ht="27" spans="2:16">
+      <c r="N7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" ht="27" spans="1:17">
       <c r="B8">
         <v>10003</v>
       </c>
@@ -1622,7 +1634,7 @@
         <v>10004</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>10001</v>
@@ -1639,22 +1651,22 @@
       <c r="J8">
         <v>10091</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="9"/>
+      <c r="K8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="6"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="N8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="B9">
         <v>10004</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>10101</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>10001</v>
@@ -1676,185 +1688,100 @@
       <c r="J9">
         <v>10092</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="9"/>
+      <c r="K9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="6"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="4:16">
-      <c r="D10" s="6"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" ht="27" spans="2:16">
-      <c r="B11">
-        <v>10101</v>
-      </c>
-      <c r="C11">
-        <v>10201</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11">
-        <v>10101</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>10093</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="9" t="s">
+      <c r="N9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="4:16">
-      <c r="D12" s="6"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" customFormat="1" ht="27" spans="2:16">
-      <c r="B13">
-        <v>10201</v>
-      </c>
-      <c r="C13">
-        <v>10301</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13">
-        <v>10201</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
+    <row r="10" spans="1:17">
+      <c r="D10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="D11" s="8"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="D12" s="7"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:17">
+      <c r="D13" s="8"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
       <c r="H13"/>
-      <c r="J13">
-        <v>10093</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="4:16">
-      <c r="D14" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:17">
+      <c r="D14" s="7"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" customFormat="1" ht="27" spans="2:16">
-      <c r="B15">
-        <v>10301</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15">
-        <v>10301</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>10093</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="4:16">
-      <c r="D16" s="7"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:17">
+      <c r="D15" s="8"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:17">
+      <c r="D16" s="8"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="4:16">
       <c r="D17" s="5"/>
@@ -1862,74 +1789,74 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="4:16">
-      <c r="D18" s="7"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="D18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="4:16">
-      <c r="D19" s="7"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" spans="4:16">
-      <c r="D20" s="6"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
+      <c r="D20" s="7"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
     </row>
     <row r="21" spans="4:16">
-      <c r="D21" s="6"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
     </row>
     <row r="22" spans="4:16">
-      <c r="D22" s="8"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
     </row>
     <row r="23" spans="4:16">
       <c r="D23" s="5"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
     </row>
     <row r="24" spans="4:16">
-      <c r="D24" s="7"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
